--- a/output_xlsx/total_vehicles.xlsx
+++ b/output_xlsx/total_vehicles.xlsx
@@ -31,7 +31,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
+    <t>21</t>
   </si>
 </sst>
 </file>

--- a/output_xlsx/total_vehicles.xlsx
+++ b/output_xlsx/total_vehicles.xlsx
@@ -25,13 +25,13 @@
     <t>Mobil Penumpang</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
 </sst>
 </file>

--- a/output_xlsx/total_vehicles.xlsx
+++ b/output_xlsx/total_vehicles.xlsx
@@ -25,13 +25,13 @@
     <t>Mobil Penumpang</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
 </sst>
 </file>

--- a/output_xlsx/total_vehicles.xlsx
+++ b/output_xlsx/total_vehicles.xlsx
@@ -25,13 +25,13 @@
     <t>Mobil Penumpang</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>

--- a/output_xlsx/total_vehicles.xlsx
+++ b/output_xlsx/total_vehicles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Sepeda Motor</t>
   </si>
@@ -25,13 +25,10 @@
     <t>Mobil Penumpang</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -388,7 +385,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/output_xlsx/total_vehicles.xlsx
+++ b/output_xlsx/total_vehicles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Sepeda Motor</t>
   </si>
@@ -25,10 +25,13 @@
     <t>Mobil Penumpang</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/output_xlsx/total_vehicles.xlsx
+++ b/output_xlsx/total_vehicles.xlsx
@@ -25,13 +25,13 @@
     <t>Mobil Penumpang</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
